--- a/data/output/FV2404_FV2310/UTILMD/55168.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55168.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22398" uniqueCount="1185">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22419" uniqueCount="1185">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3796,6 +3796,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U1446" totalsRowShown="0">
+  <autoFilter ref="A1:U1446"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4085,7 +4115,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U1446"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -61592,5 +61625,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55168.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55168.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26377" uniqueCount="2609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26211" uniqueCount="2609">
   <si>
     <t>#</t>
   </si>
@@ -14215,46 +14215,44 @@
       </c>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="6" t="s">
         <v>1292</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2" t="s">
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="K118" s="2" t="s">
+      <c r="K118" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="L118" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M118" s="2" t="s">
+      <c r="L118" s="5"/>
+      <c r="M118" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N118" s="2" t="s">
+      <c r="N118" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
-      <c r="Q118" s="2"/>
-      <c r="R118" s="2"/>
-      <c r="S118" s="2"/>
-      <c r="T118" s="2"/>
-      <c r="U118" s="2" t="s">
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="6"/>
+      <c r="T118" s="6"/>
+      <c r="U118" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="V118" s="2" t="s">
+      <c r="V118" s="6" t="s">
         <v>809</v>
       </c>
     </row>
@@ -14525,44 +14523,42 @@
       </c>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="6" t="s">
         <v>1298</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2" t="s">
+      <c r="C124" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K124" s="2"/>
-      <c r="L124" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M124" s="2" t="s">
+      <c r="K124" s="6"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N124" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
-      <c r="Q124" s="2"/>
-      <c r="R124" s="2"/>
-      <c r="S124" s="2"/>
-      <c r="T124" s="2"/>
-      <c r="U124" s="2" t="s">
+      <c r="N124" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="6"/>
+      <c r="T124" s="6"/>
+      <c r="U124" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V124" s="2"/>
+      <c r="V124" s="6"/>
     </row>
     <row r="125" spans="1:22">
       <c r="A125" s="2" t="s">
@@ -14754,9 +14750,7 @@
         <v>663</v>
       </c>
       <c r="K128" s="2"/>
-      <c r="L128" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L128" s="5"/>
       <c r="M128" s="2" t="s">
         <v>43</v>
       </c>
@@ -14783,44 +14777,42 @@
       <c r="V128" s="2"/>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="6" t="s">
         <v>1303</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2" t="s">
+      <c r="C129" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K129" s="2"/>
-      <c r="L129" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M129" s="2" t="s">
+      <c r="K129" s="6"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N129" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
-      <c r="R129" s="2"/>
-      <c r="S129" s="2"/>
-      <c r="T129" s="2"/>
-      <c r="U129" s="2" t="s">
+      <c r="N129" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O129" s="6"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="6"/>
+      <c r="R129" s="6"/>
+      <c r="S129" s="6"/>
+      <c r="T129" s="6"/>
+      <c r="U129" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V129" s="2"/>
+      <c r="V129" s="6"/>
     </row>
     <row r="130" spans="1:22">
       <c r="A130" s="2" t="s">
@@ -15213,46 +15205,44 @@
       <c r="V137" s="9"/>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2" t="s">
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="L138" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M138" s="2" t="s">
+      <c r="L138" s="5"/>
+      <c r="M138" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N138" s="2" t="s">
+      <c r="N138" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
-      <c r="Q138" s="2"/>
-      <c r="R138" s="2"/>
-      <c r="S138" s="2"/>
-      <c r="T138" s="2"/>
-      <c r="U138" s="2" t="s">
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="6"/>
+      <c r="S138" s="6"/>
+      <c r="T138" s="6"/>
+      <c r="U138" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="V138" s="2" t="s">
+      <c r="V138" s="6" t="s">
         <v>810</v>
       </c>
     </row>
@@ -15739,44 +15729,42 @@
       <c r="V147" s="2"/>
     </row>
     <row r="148" spans="1:22">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="6" t="s">
         <v>1321</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2" t="s">
+      <c r="C148" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K148" s="2"/>
-      <c r="L148" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M148" s="2" t="s">
+      <c r="K148" s="6"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N148" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O148" s="2"/>
-      <c r="P148" s="2"/>
-      <c r="Q148" s="2"/>
-      <c r="R148" s="2"/>
-      <c r="S148" s="2"/>
-      <c r="T148" s="2"/>
-      <c r="U148" s="2" t="s">
+      <c r="N148" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="6"/>
+      <c r="T148" s="6"/>
+      <c r="U148" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V148" s="2"/>
+      <c r="V148" s="6"/>
     </row>
     <row r="149" spans="1:22">
       <c r="A149" s="2" t="s">
@@ -15987,44 +15975,42 @@
       <c r="V152" s="2"/>
     </row>
     <row r="153" spans="1:22">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="6" t="s">
         <v>1326</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2" t="s">
+      <c r="C153" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K153" s="2"/>
-      <c r="L153" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M153" s="2" t="s">
+      <c r="K153" s="6"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N153" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O153" s="2"/>
-      <c r="P153" s="2"/>
-      <c r="Q153" s="2"/>
-      <c r="R153" s="2"/>
-      <c r="S153" s="2"/>
-      <c r="T153" s="2"/>
-      <c r="U153" s="2" t="s">
+      <c r="N153" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O153" s="6"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
+      <c r="R153" s="6"/>
+      <c r="S153" s="6"/>
+      <c r="T153" s="6"/>
+      <c r="U153" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V153" s="2"/>
+      <c r="V153" s="6"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="2" t="s">
@@ -16262,9 +16248,7 @@
         <v>686</v>
       </c>
       <c r="K158" s="2"/>
-      <c r="L158" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L158" s="5"/>
       <c r="M158" s="2" t="s">
         <v>49</v>
       </c>
@@ -16291,46 +16275,44 @@
       <c r="V158" s="2"/>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="6" t="s">
         <v>1332</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2" t="s">
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="K159" s="2" t="s">
+      <c r="K159" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="L159" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M159" s="2" t="s">
+      <c r="L159" s="5"/>
+      <c r="M159" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N159" s="2" t="s">
+      <c r="N159" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
-      <c r="Q159" s="2"/>
-      <c r="R159" s="2"/>
-      <c r="S159" s="2"/>
-      <c r="T159" s="2"/>
-      <c r="U159" s="2" t="s">
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="6"/>
+      <c r="T159" s="6"/>
+      <c r="U159" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="V159" s="2" t="s">
+      <c r="V159" s="6" t="s">
         <v>810</v>
       </c>
     </row>
@@ -16821,46 +16803,44 @@
       <c r="V168" s="2"/>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="6" t="s">
         <v>1342</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2" t="s">
+      <c r="C169" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="K169" s="2" t="s">
+      <c r="K169" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="L169" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M169" s="2" t="s">
+      <c r="L169" s="5"/>
+      <c r="M169" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N169" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O169" s="2"/>
-      <c r="P169" s="2"/>
-      <c r="Q169" s="2"/>
-      <c r="R169" s="2"/>
-      <c r="S169" s="2"/>
-      <c r="T169" s="2"/>
-      <c r="U169" s="2" t="s">
+      <c r="N169" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O169" s="6"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="6"/>
+      <c r="R169" s="6"/>
+      <c r="S169" s="6"/>
+      <c r="T169" s="6"/>
+      <c r="U169" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="V169" s="2" t="s">
+      <c r="V169" s="6" t="s">
         <v>812</v>
       </c>
     </row>
@@ -17023,44 +17003,42 @@
       <c r="V172" s="2"/>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="6" t="s">
         <v>1346</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2" t="s">
+      <c r="C173" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K173" s="2"/>
-      <c r="L173" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M173" s="2" t="s">
+      <c r="K173" s="6"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N173" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-      <c r="Q173" s="2"/>
-      <c r="R173" s="2"/>
-      <c r="S173" s="2"/>
-      <c r="T173" s="2"/>
-      <c r="U173" s="2" t="s">
+      <c r="N173" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O173" s="6"/>
+      <c r="P173" s="6"/>
+      <c r="Q173" s="6"/>
+      <c r="R173" s="6"/>
+      <c r="S173" s="6"/>
+      <c r="T173" s="6"/>
+      <c r="U173" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V173" s="2"/>
+      <c r="V173" s="6"/>
     </row>
     <row r="174" spans="1:22">
       <c r="A174" s="2" t="s">
@@ -17298,9 +17276,7 @@
         <v>663</v>
       </c>
       <c r="K178" s="2"/>
-      <c r="L178" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L178" s="5"/>
       <c r="M178" s="2" t="s">
         <v>53</v>
       </c>
@@ -17381,44 +17357,42 @@
       <c r="V179" s="2"/>
     </row>
     <row r="180" spans="1:22">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="6" t="s">
         <v>1353</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
-      <c r="J180" s="2" t="s">
+      <c r="C180" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K180" s="2"/>
-      <c r="L180" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M180" s="2" t="s">
+      <c r="K180" s="6"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N180" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O180" s="2"/>
-      <c r="P180" s="2"/>
-      <c r="Q180" s="2"/>
-      <c r="R180" s="2"/>
-      <c r="S180" s="2"/>
-      <c r="T180" s="2"/>
-      <c r="U180" s="2" t="s">
+      <c r="N180" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O180" s="6"/>
+      <c r="P180" s="6"/>
+      <c r="Q180" s="6"/>
+      <c r="R180" s="6"/>
+      <c r="S180" s="6"/>
+      <c r="T180" s="6"/>
+      <c r="U180" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V180" s="2"/>
+      <c r="V180" s="6"/>
     </row>
     <row r="181" spans="1:22">
       <c r="A181" s="2" t="s">
@@ -17552,9 +17526,7 @@
         <v>668</v>
       </c>
       <c r="K183" s="2"/>
-      <c r="L183" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L183" s="5"/>
       <c r="M183" s="2" t="s">
         <v>54</v>
       </c>
@@ -17581,46 +17553,44 @@
       <c r="V183" s="2"/>
     </row>
     <row r="184" spans="1:22">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="6" t="s">
         <v>1357</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
-      <c r="J184" s="2" t="s">
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="K184" s="2" t="s">
+      <c r="K184" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="L184" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M184" s="2" t="s">
+      <c r="L184" s="5"/>
+      <c r="M184" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N184" s="2" t="s">
+      <c r="N184" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="O184" s="2"/>
-      <c r="P184" s="2"/>
-      <c r="Q184" s="2"/>
-      <c r="R184" s="2"/>
-      <c r="S184" s="2"/>
-      <c r="T184" s="2"/>
-      <c r="U184" s="2" t="s">
+      <c r="O184" s="6"/>
+      <c r="P184" s="6"/>
+      <c r="Q184" s="6"/>
+      <c r="R184" s="6"/>
+      <c r="S184" s="6"/>
+      <c r="T184" s="6"/>
+      <c r="U184" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="V184" s="2" t="s">
+      <c r="V184" s="6" t="s">
         <v>813</v>
       </c>
     </row>
@@ -17891,46 +17861,44 @@
       </c>
     </row>
     <row r="190" spans="1:22">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="6" t="s">
         <v>1363</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="2"/>
-      <c r="J190" s="2" t="s">
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="6"/>
+      <c r="J190" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="K190" s="2" t="s">
+      <c r="K190" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="L190" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M190" s="2" t="s">
+      <c r="L190" s="5"/>
+      <c r="M190" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N190" s="2" t="s">
+      <c r="N190" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="O190" s="2"/>
-      <c r="P190" s="2"/>
-      <c r="Q190" s="2"/>
-      <c r="R190" s="2"/>
-      <c r="S190" s="2"/>
-      <c r="T190" s="2"/>
-      <c r="U190" s="2" t="s">
+      <c r="O190" s="6"/>
+      <c r="P190" s="6"/>
+      <c r="Q190" s="6"/>
+      <c r="R190" s="6"/>
+      <c r="S190" s="6"/>
+      <c r="T190" s="6"/>
+      <c r="U190" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="V190" s="2" t="s">
+      <c r="V190" s="6" t="s">
         <v>814</v>
       </c>
     </row>
@@ -18066,9 +18034,7 @@
         <v>663</v>
       </c>
       <c r="K193" s="2"/>
-      <c r="L193" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L193" s="5"/>
       <c r="M193" s="2" t="s">
         <v>57</v>
       </c>
@@ -18240,9 +18206,7 @@
       <c r="K196" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="L196" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L196" s="5"/>
       <c r="M196" s="2" t="s">
         <v>57</v>
       </c>
@@ -18535,44 +18499,42 @@
       <c r="V201" s="2"/>
     </row>
     <row r="202" spans="1:22">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="6" t="s">
         <v>1375</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
-      <c r="I202" s="2"/>
-      <c r="J202" s="2" t="s">
+      <c r="C202" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K202" s="2"/>
-      <c r="L202" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M202" s="2" t="s">
+      <c r="K202" s="6"/>
+      <c r="L202" s="5"/>
+      <c r="M202" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N202" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O202" s="2"/>
-      <c r="P202" s="2"/>
-      <c r="Q202" s="2"/>
-      <c r="R202" s="2"/>
-      <c r="S202" s="2"/>
-      <c r="T202" s="2"/>
-      <c r="U202" s="2" t="s">
+      <c r="N202" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O202" s="6"/>
+      <c r="P202" s="6"/>
+      <c r="Q202" s="6"/>
+      <c r="R202" s="6"/>
+      <c r="S202" s="6"/>
+      <c r="T202" s="6"/>
+      <c r="U202" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V202" s="2"/>
+      <c r="V202" s="6"/>
     </row>
     <row r="203" spans="1:22">
       <c r="A203" s="2" t="s">
@@ -18764,9 +18726,7 @@
         <v>663</v>
       </c>
       <c r="K206" s="2"/>
-      <c r="L206" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L206" s="5"/>
       <c r="M206" s="2" t="s">
         <v>59</v>
       </c>
@@ -18793,44 +18753,42 @@
       <c r="V206" s="2"/>
     </row>
     <row r="207" spans="1:22">
-      <c r="A207" s="2" t="s">
+      <c r="A207" s="6" t="s">
         <v>1380</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
-      <c r="I207" s="2"/>
-      <c r="J207" s="2" t="s">
+      <c r="C207" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+      <c r="I207" s="6"/>
+      <c r="J207" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K207" s="2"/>
-      <c r="L207" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M207" s="2" t="s">
+      <c r="K207" s="6"/>
+      <c r="L207" s="5"/>
+      <c r="M207" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N207" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O207" s="2"/>
-      <c r="P207" s="2"/>
-      <c r="Q207" s="2"/>
-      <c r="R207" s="2"/>
-      <c r="S207" s="2"/>
-      <c r="T207" s="2"/>
-      <c r="U207" s="2" t="s">
+      <c r="N207" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O207" s="6"/>
+      <c r="P207" s="6"/>
+      <c r="Q207" s="6"/>
+      <c r="R207" s="6"/>
+      <c r="S207" s="6"/>
+      <c r="T207" s="6"/>
+      <c r="U207" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V207" s="2"/>
+      <c r="V207" s="6"/>
     </row>
     <row r="208" spans="1:22">
       <c r="A208" s="2" t="s">
@@ -19508,9 +19466,7 @@
         <v>663</v>
       </c>
       <c r="K220" s="2"/>
-      <c r="L220" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L220" s="5"/>
       <c r="M220" s="2" t="s">
         <v>45</v>
       </c>
@@ -19665,44 +19621,42 @@
       <c r="V223" s="9"/>
     </row>
     <row r="224" spans="1:22">
-      <c r="A224" s="2" t="s">
+      <c r="A224" s="6" t="s">
         <v>1397</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="2" t="s">
+      <c r="C224" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+      <c r="I224" s="6"/>
+      <c r="J224" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K224" s="2"/>
-      <c r="L224" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M224" s="2" t="s">
+      <c r="K224" s="6"/>
+      <c r="L224" s="5"/>
+      <c r="M224" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N224" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O224" s="2"/>
-      <c r="P224" s="2"/>
-      <c r="Q224" s="2"/>
-      <c r="R224" s="2"/>
-      <c r="S224" s="2"/>
-      <c r="T224" s="2"/>
-      <c r="U224" s="2" t="s">
+      <c r="N224" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O224" s="6"/>
+      <c r="P224" s="6"/>
+      <c r="Q224" s="6"/>
+      <c r="R224" s="6"/>
+      <c r="S224" s="6"/>
+      <c r="T224" s="6"/>
+      <c r="U224" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V224" s="2"/>
+      <c r="V224" s="6"/>
     </row>
     <row r="225" spans="1:22">
       <c r="A225" s="2" t="s">
@@ -19940,9 +19894,7 @@
         <v>663</v>
       </c>
       <c r="K229" s="2"/>
-      <c r="L229" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L229" s="5"/>
       <c r="M229" s="2" t="s">
         <v>62</v>
       </c>
@@ -19996,9 +19948,7 @@
         <v>663</v>
       </c>
       <c r="K230" s="2"/>
-      <c r="L230" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L230" s="5"/>
       <c r="M230" s="2" t="s">
         <v>62</v>
       </c>
@@ -20052,9 +20002,7 @@
         <v>663</v>
       </c>
       <c r="K231" s="2"/>
-      <c r="L231" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L231" s="5"/>
       <c r="M231" s="2" t="s">
         <v>62</v>
       </c>
@@ -20081,44 +20029,42 @@
       <c r="V231" s="2"/>
     </row>
     <row r="232" spans="1:22">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="6" t="s">
         <v>1405</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2" t="s">
+      <c r="C232" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="6"/>
+      <c r="I232" s="6"/>
+      <c r="J232" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K232" s="2"/>
-      <c r="L232" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M232" s="2" t="s">
+      <c r="K232" s="6"/>
+      <c r="L232" s="5"/>
+      <c r="M232" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N232" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O232" s="2"/>
-      <c r="P232" s="2"/>
-      <c r="Q232" s="2"/>
-      <c r="R232" s="2"/>
-      <c r="S232" s="2"/>
-      <c r="T232" s="2"/>
-      <c r="U232" s="2" t="s">
+      <c r="N232" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O232" s="6"/>
+      <c r="P232" s="6"/>
+      <c r="Q232" s="6"/>
+      <c r="R232" s="6"/>
+      <c r="S232" s="6"/>
+      <c r="T232" s="6"/>
+      <c r="U232" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V232" s="2"/>
+      <c r="V232" s="6"/>
     </row>
     <row r="233" spans="1:22">
       <c r="A233" s="2" t="s">
@@ -20356,9 +20302,7 @@
         <v>663</v>
       </c>
       <c r="K237" s="2"/>
-      <c r="L237" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L237" s="5"/>
       <c r="M237" s="2" t="s">
         <v>63</v>
       </c>
@@ -20385,44 +20329,42 @@
       <c r="V237" s="2"/>
     </row>
     <row r="238" spans="1:22">
-      <c r="A238" s="2" t="s">
+      <c r="A238" s="6" t="s">
         <v>1411</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
-      <c r="I238" s="2"/>
-      <c r="J238" s="2" t="s">
+      <c r="C238" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K238" s="2"/>
-      <c r="L238" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M238" s="2" t="s">
+      <c r="K238" s="6"/>
+      <c r="L238" s="5"/>
+      <c r="M238" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N238" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O238" s="2"/>
-      <c r="P238" s="2"/>
-      <c r="Q238" s="2"/>
-      <c r="R238" s="2"/>
-      <c r="S238" s="2"/>
-      <c r="T238" s="2"/>
-      <c r="U238" s="2" t="s">
+      <c r="N238" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O238" s="6"/>
+      <c r="P238" s="6"/>
+      <c r="Q238" s="6"/>
+      <c r="R238" s="6"/>
+      <c r="S238" s="6"/>
+      <c r="T238" s="6"/>
+      <c r="U238" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V238" s="2"/>
+      <c r="V238" s="6"/>
     </row>
     <row r="239" spans="1:22">
       <c r="A239" s="2" t="s">
@@ -20614,9 +20556,7 @@
         <v>663</v>
       </c>
       <c r="K242" s="2"/>
-      <c r="L242" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L242" s="5"/>
       <c r="M242" s="2" t="s">
         <v>64</v>
       </c>
@@ -20643,44 +20583,42 @@
       <c r="V242" s="2"/>
     </row>
     <row r="243" spans="1:22">
-      <c r="A243" s="2" t="s">
+      <c r="A243" s="6" t="s">
         <v>1416</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
-      <c r="H243" s="2"/>
-      <c r="I243" s="2"/>
-      <c r="J243" s="2" t="s">
+      <c r="C243" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+      <c r="I243" s="6"/>
+      <c r="J243" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K243" s="2"/>
-      <c r="L243" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M243" s="2" t="s">
+      <c r="K243" s="6"/>
+      <c r="L243" s="5"/>
+      <c r="M243" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N243" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O243" s="2"/>
-      <c r="P243" s="2"/>
-      <c r="Q243" s="2"/>
-      <c r="R243" s="2"/>
-      <c r="S243" s="2"/>
-      <c r="T243" s="2"/>
-      <c r="U243" s="2" t="s">
+      <c r="N243" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O243" s="6"/>
+      <c r="P243" s="6"/>
+      <c r="Q243" s="6"/>
+      <c r="R243" s="6"/>
+      <c r="S243" s="6"/>
+      <c r="T243" s="6"/>
+      <c r="U243" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V243" s="2"/>
+      <c r="V243" s="6"/>
     </row>
     <row r="244" spans="1:22">
       <c r="A244" s="2" t="s">
@@ -20814,9 +20752,7 @@
         <v>663</v>
       </c>
       <c r="K246" s="2"/>
-      <c r="L246" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L246" s="5"/>
       <c r="M246" s="2" t="s">
         <v>65</v>
       </c>
@@ -20978,9 +20914,7 @@
         <v>668</v>
       </c>
       <c r="K249" s="2"/>
-      <c r="L249" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L249" s="5"/>
       <c r="M249" s="2" t="s">
         <v>66</v>
       </c>
@@ -21034,9 +20968,7 @@
         <v>668</v>
       </c>
       <c r="K250" s="2"/>
-      <c r="L250" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L250" s="5"/>
       <c r="M250" s="2" t="s">
         <v>66</v>
       </c>
@@ -21063,46 +20995,44 @@
       <c r="V250" s="2"/>
     </row>
     <row r="251" spans="1:22">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="6" t="s">
         <v>1424</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
-      <c r="J251" s="2" t="s">
+      <c r="C251" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
+      <c r="I251" s="6"/>
+      <c r="J251" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="K251" s="2" t="s">
+      <c r="K251" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="L251" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M251" s="2" t="s">
+      <c r="L251" s="5"/>
+      <c r="M251" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N251" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O251" s="2"/>
-      <c r="P251" s="2"/>
-      <c r="Q251" s="2"/>
-      <c r="R251" s="2"/>
-      <c r="S251" s="2"/>
-      <c r="T251" s="2"/>
-      <c r="U251" s="2" t="s">
+      <c r="N251" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O251" s="6"/>
+      <c r="P251" s="6"/>
+      <c r="Q251" s="6"/>
+      <c r="R251" s="6"/>
+      <c r="S251" s="6"/>
+      <c r="T251" s="6"/>
+      <c r="U251" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="V251" s="2" t="s">
+      <c r="V251" s="6" t="s">
         <v>823</v>
       </c>
     </row>
@@ -21342,9 +21272,7 @@
         <v>663</v>
       </c>
       <c r="K256" s="2"/>
-      <c r="L256" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L256" s="5"/>
       <c r="M256" s="2" t="s">
         <v>68</v>
       </c>
@@ -21398,9 +21326,7 @@
         <v>663</v>
       </c>
       <c r="K257" s="2"/>
-      <c r="L257" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L257" s="5"/>
       <c r="M257" s="2" t="s">
         <v>68</v>
       </c>
@@ -21454,9 +21380,7 @@
         <v>663</v>
       </c>
       <c r="K258" s="2"/>
-      <c r="L258" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L258" s="5"/>
       <c r="M258" s="2" t="s">
         <v>68</v>
       </c>
@@ -21510,9 +21434,7 @@
         <v>663</v>
       </c>
       <c r="K259" s="2"/>
-      <c r="L259" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L259" s="5"/>
       <c r="M259" s="2" t="s">
         <v>68</v>
       </c>
@@ -21539,46 +21461,44 @@
       <c r="V259" s="2"/>
     </row>
     <row r="260" spans="1:22">
-      <c r="A260" s="2" t="s">
+      <c r="A260" s="6" t="s">
         <v>1433</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
-      <c r="G260" s="2"/>
-      <c r="H260" s="2"/>
-      <c r="I260" s="2"/>
-      <c r="J260" s="2" t="s">
+      <c r="C260" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6"/>
+      <c r="I260" s="6"/>
+      <c r="J260" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="K260" s="2" t="s">
+      <c r="K260" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="L260" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M260" s="2" t="s">
+      <c r="L260" s="5"/>
+      <c r="M260" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="N260" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O260" s="2"/>
-      <c r="P260" s="2"/>
-      <c r="Q260" s="2"/>
-      <c r="R260" s="2"/>
-      <c r="S260" s="2"/>
-      <c r="T260" s="2"/>
-      <c r="U260" s="2" t="s">
+      <c r="N260" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O260" s="6"/>
+      <c r="P260" s="6"/>
+      <c r="Q260" s="6"/>
+      <c r="R260" s="6"/>
+      <c r="S260" s="6"/>
+      <c r="T260" s="6"/>
+      <c r="U260" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="V260" s="2" t="s">
+      <c r="V260" s="6" t="s">
         <v>824</v>
       </c>
     </row>
@@ -21772,9 +21692,7 @@
         <v>663</v>
       </c>
       <c r="K264" s="2"/>
-      <c r="L264" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L264" s="5"/>
       <c r="M264" s="2" t="s">
         <v>69</v>
       </c>
@@ -21801,46 +21719,44 @@
       <c r="V264" s="2"/>
     </row>
     <row r="265" spans="1:22">
-      <c r="A265" s="2" t="s">
+      <c r="A265" s="6" t="s">
         <v>1438</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
-      <c r="G265" s="2"/>
-      <c r="H265" s="2"/>
-      <c r="I265" s="2"/>
-      <c r="J265" s="2" t="s">
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="6"/>
+      <c r="I265" s="6"/>
+      <c r="J265" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="K265" s="2" t="s">
+      <c r="K265" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="L265" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M265" s="2" t="s">
+      <c r="L265" s="5"/>
+      <c r="M265" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N265" s="2" t="s">
+      <c r="N265" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="O265" s="2"/>
-      <c r="P265" s="2"/>
-      <c r="Q265" s="2"/>
-      <c r="R265" s="2"/>
-      <c r="S265" s="2"/>
-      <c r="T265" s="2"/>
-      <c r="U265" s="2" t="s">
+      <c r="O265" s="6"/>
+      <c r="P265" s="6"/>
+      <c r="Q265" s="6"/>
+      <c r="R265" s="6"/>
+      <c r="S265" s="6"/>
+      <c r="T265" s="6"/>
+      <c r="U265" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="V265" s="2" t="s">
+      <c r="V265" s="6" t="s">
         <v>825</v>
       </c>
     </row>
@@ -22331,46 +22247,44 @@
       <c r="V274" s="2"/>
     </row>
     <row r="275" spans="1:22">
-      <c r="A275" s="2" t="s">
+      <c r="A275" s="6" t="s">
         <v>1447</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C275" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
-      <c r="F275" s="2"/>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2"/>
-      <c r="I275" s="2"/>
-      <c r="J275" s="2" t="s">
+      <c r="C275" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+      <c r="I275" s="6"/>
+      <c r="J275" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="K275" s="2" t="s">
+      <c r="K275" s="6" t="s">
         <v>827</v>
       </c>
-      <c r="L275" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M275" s="2" t="s">
+      <c r="L275" s="5"/>
+      <c r="M275" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="N275" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O275" s="2"/>
-      <c r="P275" s="2"/>
-      <c r="Q275" s="2"/>
-      <c r="R275" s="2"/>
-      <c r="S275" s="2"/>
-      <c r="T275" s="2"/>
-      <c r="U275" s="2" t="s">
+      <c r="N275" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O275" s="6"/>
+      <c r="P275" s="6"/>
+      <c r="Q275" s="6"/>
+      <c r="R275" s="6"/>
+      <c r="S275" s="6"/>
+      <c r="T275" s="6"/>
+      <c r="U275" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="V275" s="2" t="s">
+      <c r="V275" s="6" t="s">
         <v>827</v>
       </c>
     </row>
@@ -22508,9 +22422,7 @@
       <c r="K278" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="L278" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L278" s="5"/>
       <c r="M278" s="2" t="s">
         <v>71</v>
       </c>
@@ -22597,44 +22509,42 @@
       </c>
     </row>
     <row r="280" spans="1:22">
-      <c r="A280" s="2" t="s">
+      <c r="A280" s="6" t="s">
         <v>1452</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C280" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
-      <c r="F280" s="2"/>
-      <c r="G280" s="2"/>
-      <c r="H280" s="2"/>
-      <c r="I280" s="2"/>
-      <c r="J280" s="2" t="s">
+      <c r="C280" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+      <c r="I280" s="6"/>
+      <c r="J280" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K280" s="2"/>
-      <c r="L280" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M280" s="2" t="s">
+      <c r="K280" s="6"/>
+      <c r="L280" s="5"/>
+      <c r="M280" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N280" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O280" s="2"/>
-      <c r="P280" s="2"/>
-      <c r="Q280" s="2"/>
-      <c r="R280" s="2"/>
-      <c r="S280" s="2"/>
-      <c r="T280" s="2"/>
-      <c r="U280" s="2" t="s">
+      <c r="N280" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O280" s="6"/>
+      <c r="P280" s="6"/>
+      <c r="Q280" s="6"/>
+      <c r="R280" s="6"/>
+      <c r="S280" s="6"/>
+      <c r="T280" s="6"/>
+      <c r="U280" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V280" s="2"/>
+      <c r="V280" s="6"/>
     </row>
     <row r="281" spans="1:22">
       <c r="A281" s="2" t="s">
@@ -22872,9 +22782,7 @@
         <v>708</v>
       </c>
       <c r="K285" s="2"/>
-      <c r="L285" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L285" s="5"/>
       <c r="M285" s="2" t="s">
         <v>73</v>
       </c>
@@ -22928,9 +22836,7 @@
         <v>709</v>
       </c>
       <c r="K286" s="2"/>
-      <c r="L286" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L286" s="5"/>
       <c r="M286" s="2" t="s">
         <v>73</v>
       </c>
@@ -22984,9 +22890,7 @@
         <v>710</v>
       </c>
       <c r="K287" s="2"/>
-      <c r="L287" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L287" s="5"/>
       <c r="M287" s="2" t="s">
         <v>73</v>
       </c>
@@ -23040,9 +22944,7 @@
         <v>711</v>
       </c>
       <c r="K288" s="2"/>
-      <c r="L288" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L288" s="5"/>
       <c r="M288" s="2" t="s">
         <v>73</v>
       </c>
@@ -23096,9 +22998,7 @@
         <v>712</v>
       </c>
       <c r="K289" s="2"/>
-      <c r="L289" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L289" s="5"/>
       <c r="M289" s="2" t="s">
         <v>73</v>
       </c>
@@ -23125,44 +23025,42 @@
       <c r="V289" s="2"/>
     </row>
     <row r="290" spans="1:22">
-      <c r="A290" s="2" t="s">
+      <c r="A290" s="6" t="s">
         <v>1462</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B290" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C290" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
-      <c r="F290" s="2"/>
-      <c r="G290" s="2"/>
-      <c r="H290" s="2"/>
-      <c r="I290" s="2"/>
-      <c r="J290" s="2" t="s">
+      <c r="C290" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D290" s="6"/>
+      <c r="E290" s="6"/>
+      <c r="F290" s="6"/>
+      <c r="G290" s="6"/>
+      <c r="H290" s="6"/>
+      <c r="I290" s="6"/>
+      <c r="J290" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K290" s="2"/>
-      <c r="L290" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M290" s="2" t="s">
+      <c r="K290" s="6"/>
+      <c r="L290" s="5"/>
+      <c r="M290" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N290" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O290" s="2"/>
-      <c r="P290" s="2"/>
-      <c r="Q290" s="2"/>
-      <c r="R290" s="2"/>
-      <c r="S290" s="2"/>
-      <c r="T290" s="2"/>
-      <c r="U290" s="2" t="s">
+      <c r="N290" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O290" s="6"/>
+      <c r="P290" s="6"/>
+      <c r="Q290" s="6"/>
+      <c r="R290" s="6"/>
+      <c r="S290" s="6"/>
+      <c r="T290" s="6"/>
+      <c r="U290" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V290" s="2"/>
+      <c r="V290" s="6"/>
     </row>
     <row r="291" spans="1:22">
       <c r="A291" s="2" t="s">
@@ -23400,9 +23298,7 @@
         <v>714</v>
       </c>
       <c r="K295" s="2"/>
-      <c r="L295" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L295" s="5"/>
       <c r="M295" s="2" t="s">
         <v>73</v>
       </c>
@@ -23456,9 +23352,7 @@
         <v>709</v>
       </c>
       <c r="K296" s="2"/>
-      <c r="L296" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L296" s="5"/>
       <c r="M296" s="2" t="s">
         <v>73</v>
       </c>
@@ -23512,9 +23406,7 @@
         <v>715</v>
       </c>
       <c r="K297" s="2"/>
-      <c r="L297" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L297" s="5"/>
       <c r="M297" s="2" t="s">
         <v>73</v>
       </c>
@@ -23568,9 +23460,7 @@
         <v>716</v>
       </c>
       <c r="K298" s="2"/>
-      <c r="L298" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L298" s="5"/>
       <c r="M298" s="2" t="s">
         <v>73</v>
       </c>
@@ -23624,9 +23514,7 @@
         <v>712</v>
       </c>
       <c r="K299" s="2"/>
-      <c r="L299" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L299" s="5"/>
       <c r="M299" s="2" t="s">
         <v>73</v>
       </c>
@@ -23653,46 +23541,44 @@
       <c r="V299" s="2"/>
     </row>
     <row r="300" spans="1:22">
-      <c r="A300" s="2" t="s">
+      <c r="A300" s="6" t="s">
         <v>1471</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B300" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D300" s="2"/>
-      <c r="E300" s="2"/>
-      <c r="F300" s="2"/>
-      <c r="G300" s="2"/>
-      <c r="H300" s="2"/>
-      <c r="I300" s="2"/>
-      <c r="J300" s="2" t="s">
+      <c r="C300" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D300" s="6"/>
+      <c r="E300" s="6"/>
+      <c r="F300" s="6"/>
+      <c r="G300" s="6"/>
+      <c r="H300" s="6"/>
+      <c r="I300" s="6"/>
+      <c r="J300" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="K300" s="2" t="s">
+      <c r="K300" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="L300" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M300" s="2" t="s">
+      <c r="L300" s="5"/>
+      <c r="M300" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N300" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O300" s="2"/>
-      <c r="P300" s="2"/>
-      <c r="Q300" s="2"/>
-      <c r="R300" s="2"/>
-      <c r="S300" s="2"/>
-      <c r="T300" s="2"/>
-      <c r="U300" s="2" t="s">
+      <c r="N300" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O300" s="6"/>
+      <c r="P300" s="6"/>
+      <c r="Q300" s="6"/>
+      <c r="R300" s="6"/>
+      <c r="S300" s="6"/>
+      <c r="T300" s="6"/>
+      <c r="U300" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="V300" s="2" t="s">
+      <c r="V300" s="6" t="s">
         <v>830</v>
       </c>
     </row>
@@ -23932,9 +23818,7 @@
         <v>686</v>
       </c>
       <c r="K305" s="2"/>
-      <c r="L305" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L305" s="5"/>
       <c r="M305" s="2" t="s">
         <v>73</v>
       </c>
@@ -23961,46 +23845,44 @@
       <c r="V305" s="2"/>
     </row>
     <row r="306" spans="1:22">
-      <c r="A306" s="2" t="s">
+      <c r="A306" s="6" t="s">
         <v>1476</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C306" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D306" s="2"/>
-      <c r="E306" s="2"/>
-      <c r="F306" s="2"/>
-      <c r="G306" s="2"/>
-      <c r="H306" s="2"/>
-      <c r="I306" s="2"/>
-      <c r="J306" s="2" t="s">
+      <c r="D306" s="6"/>
+      <c r="E306" s="6"/>
+      <c r="F306" s="6"/>
+      <c r="G306" s="6"/>
+      <c r="H306" s="6"/>
+      <c r="I306" s="6"/>
+      <c r="J306" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="K306" s="2" t="s">
+      <c r="K306" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="L306" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M306" s="2" t="s">
+      <c r="L306" s="5"/>
+      <c r="M306" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="N306" s="2" t="s">
+      <c r="N306" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="O306" s="2"/>
-      <c r="P306" s="2"/>
-      <c r="Q306" s="2"/>
-      <c r="R306" s="2"/>
-      <c r="S306" s="2"/>
-      <c r="T306" s="2"/>
-      <c r="U306" s="2" t="s">
+      <c r="O306" s="6"/>
+      <c r="P306" s="6"/>
+      <c r="Q306" s="6"/>
+      <c r="R306" s="6"/>
+      <c r="S306" s="6"/>
+      <c r="T306" s="6"/>
+      <c r="U306" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="V306" s="2" t="s">
+      <c r="V306" s="6" t="s">
         <v>831</v>
       </c>
     </row>
@@ -24491,46 +24373,44 @@
       <c r="V315" s="2"/>
     </row>
     <row r="316" spans="1:22">
-      <c r="A316" s="2" t="s">
+      <c r="A316" s="6" t="s">
         <v>1486</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B316" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C316" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D316" s="2"/>
-      <c r="E316" s="2"/>
-      <c r="F316" s="2"/>
-      <c r="G316" s="2"/>
-      <c r="H316" s="2"/>
-      <c r="I316" s="2"/>
-      <c r="J316" s="2" t="s">
+      <c r="C316" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
+      <c r="F316" s="6"/>
+      <c r="G316" s="6"/>
+      <c r="H316" s="6"/>
+      <c r="I316" s="6"/>
+      <c r="J316" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="K316" s="2" t="s">
+      <c r="K316" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="L316" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M316" s="2" t="s">
+      <c r="L316" s="5"/>
+      <c r="M316" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="N316" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O316" s="2"/>
-      <c r="P316" s="2"/>
-      <c r="Q316" s="2"/>
-      <c r="R316" s="2"/>
-      <c r="S316" s="2"/>
-      <c r="T316" s="2"/>
-      <c r="U316" s="2" t="s">
+      <c r="N316" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O316" s="6"/>
+      <c r="P316" s="6"/>
+      <c r="Q316" s="6"/>
+      <c r="R316" s="6"/>
+      <c r="S316" s="6"/>
+      <c r="T316" s="6"/>
+      <c r="U316" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="V316" s="2" t="s">
+      <c r="V316" s="6" t="s">
         <v>833</v>
       </c>
     </row>
@@ -24770,9 +24650,7 @@
         <v>663</v>
       </c>
       <c r="K321" s="2"/>
-      <c r="L321" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L321" s="5"/>
       <c r="M321" s="2" t="s">
         <v>78</v>
       </c>
@@ -24826,9 +24704,7 @@
         <v>663</v>
       </c>
       <c r="K322" s="2"/>
-      <c r="L322" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L322" s="5"/>
       <c r="M322" s="2" t="s">
         <v>78</v>
       </c>
@@ -24882,9 +24758,7 @@
         <v>663</v>
       </c>
       <c r="K323" s="2"/>
-      <c r="L323" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L323" s="5"/>
       <c r="M323" s="2" t="s">
         <v>78</v>
       </c>
@@ -24911,46 +24785,44 @@
       <c r="V323" s="2"/>
     </row>
     <row r="324" spans="1:22">
-      <c r="A324" s="2" t="s">
+      <c r="A324" s="6" t="s">
         <v>1494</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B324" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C324" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D324" s="2"/>
-      <c r="E324" s="2"/>
-      <c r="F324" s="2"/>
-      <c r="G324" s="2"/>
-      <c r="H324" s="2"/>
-      <c r="I324" s="2"/>
-      <c r="J324" s="2" t="s">
+      <c r="C324" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D324" s="6"/>
+      <c r="E324" s="6"/>
+      <c r="F324" s="6"/>
+      <c r="G324" s="6"/>
+      <c r="H324" s="6"/>
+      <c r="I324" s="6"/>
+      <c r="J324" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="K324" s="2" t="s">
+      <c r="K324" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="L324" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M324" s="2" t="s">
+      <c r="L324" s="5"/>
+      <c r="M324" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="N324" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O324" s="2"/>
-      <c r="P324" s="2"/>
-      <c r="Q324" s="2"/>
-      <c r="R324" s="2"/>
-      <c r="S324" s="2"/>
-      <c r="T324" s="2"/>
-      <c r="U324" s="2" t="s">
+      <c r="N324" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O324" s="6"/>
+      <c r="P324" s="6"/>
+      <c r="Q324" s="6"/>
+      <c r="R324" s="6"/>
+      <c r="S324" s="6"/>
+      <c r="T324" s="6"/>
+      <c r="U324" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="V324" s="2" t="s">
+      <c r="V324" s="6" t="s">
         <v>834</v>
       </c>
     </row>
@@ -25427,44 +25299,42 @@
       <c r="V335" s="9"/>
     </row>
     <row r="336" spans="1:22">
-      <c r="A336" s="2" t="s">
+      <c r="A336" s="6" t="s">
         <v>1506</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B336" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C336" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D336" s="2"/>
-      <c r="E336" s="2"/>
-      <c r="F336" s="2"/>
-      <c r="G336" s="2"/>
-      <c r="H336" s="2"/>
-      <c r="I336" s="2"/>
-      <c r="J336" s="2" t="s">
+      <c r="C336" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D336" s="6"/>
+      <c r="E336" s="6"/>
+      <c r="F336" s="6"/>
+      <c r="G336" s="6"/>
+      <c r="H336" s="6"/>
+      <c r="I336" s="6"/>
+      <c r="J336" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K336" s="2"/>
-      <c r="L336" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M336" s="2" t="s">
+      <c r="K336" s="6"/>
+      <c r="L336" s="5"/>
+      <c r="M336" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N336" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O336" s="2"/>
-      <c r="P336" s="2"/>
-      <c r="Q336" s="2"/>
-      <c r="R336" s="2"/>
-      <c r="S336" s="2"/>
-      <c r="T336" s="2"/>
-      <c r="U336" s="2" t="s">
+      <c r="N336" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O336" s="6"/>
+      <c r="P336" s="6"/>
+      <c r="Q336" s="6"/>
+      <c r="R336" s="6"/>
+      <c r="S336" s="6"/>
+      <c r="T336" s="6"/>
+      <c r="U336" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V336" s="2"/>
+      <c r="V336" s="6"/>
     </row>
     <row r="337" spans="1:22">
       <c r="A337" s="2" t="s">
@@ -25702,9 +25572,7 @@
         <v>724</v>
       </c>
       <c r="K341" s="2"/>
-      <c r="L341" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L341" s="5"/>
       <c r="M341" s="2" t="s">
         <v>49</v>
       </c>
@@ -25758,9 +25626,7 @@
         <v>725</v>
       </c>
       <c r="K342" s="2"/>
-      <c r="L342" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L342" s="5"/>
       <c r="M342" s="2" t="s">
         <v>49</v>
       </c>
@@ -25814,9 +25680,7 @@
         <v>726</v>
       </c>
       <c r="K343" s="2"/>
-      <c r="L343" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L343" s="5"/>
       <c r="M343" s="2" t="s">
         <v>49</v>
       </c>
@@ -25870,9 +25734,7 @@
         <v>727</v>
       </c>
       <c r="K344" s="2"/>
-      <c r="L344" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L344" s="5"/>
       <c r="M344" s="2" t="s">
         <v>49</v>
       </c>
@@ -25926,9 +25788,7 @@
         <v>712</v>
       </c>
       <c r="K345" s="2"/>
-      <c r="L345" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L345" s="5"/>
       <c r="M345" s="2" t="s">
         <v>49</v>
       </c>
@@ -25955,44 +25815,42 @@
       <c r="V345" s="2"/>
     </row>
     <row r="346" spans="1:22">
-      <c r="A346" s="2" t="s">
+      <c r="A346" s="6" t="s">
         <v>1516</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B346" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C346" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D346" s="2"/>
-      <c r="E346" s="2"/>
-      <c r="F346" s="2"/>
-      <c r="G346" s="2"/>
-      <c r="H346" s="2"/>
-      <c r="I346" s="2"/>
-      <c r="J346" s="2" t="s">
+      <c r="C346" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D346" s="6"/>
+      <c r="E346" s="6"/>
+      <c r="F346" s="6"/>
+      <c r="G346" s="6"/>
+      <c r="H346" s="6"/>
+      <c r="I346" s="6"/>
+      <c r="J346" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K346" s="2"/>
-      <c r="L346" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M346" s="2" t="s">
+      <c r="K346" s="6"/>
+      <c r="L346" s="5"/>
+      <c r="M346" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N346" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O346" s="2"/>
-      <c r="P346" s="2"/>
-      <c r="Q346" s="2"/>
-      <c r="R346" s="2"/>
-      <c r="S346" s="2"/>
-      <c r="T346" s="2"/>
-      <c r="U346" s="2" t="s">
+      <c r="N346" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O346" s="6"/>
+      <c r="P346" s="6"/>
+      <c r="Q346" s="6"/>
+      <c r="R346" s="6"/>
+      <c r="S346" s="6"/>
+      <c r="T346" s="6"/>
+      <c r="U346" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V346" s="2"/>
+      <c r="V346" s="6"/>
     </row>
     <row r="347" spans="1:22">
       <c r="A347" s="2" t="s">
@@ -26230,9 +26088,7 @@
         <v>729</v>
       </c>
       <c r="K351" s="2"/>
-      <c r="L351" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L351" s="5"/>
       <c r="M351" s="2" t="s">
         <v>49</v>
       </c>
@@ -26286,9 +26142,7 @@
         <v>725</v>
       </c>
       <c r="K352" s="2"/>
-      <c r="L352" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L352" s="5"/>
       <c r="M352" s="2" t="s">
         <v>49</v>
       </c>
@@ -26342,9 +26196,7 @@
         <v>730</v>
       </c>
       <c r="K353" s="2"/>
-      <c r="L353" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L353" s="5"/>
       <c r="M353" s="2" t="s">
         <v>49</v>
       </c>
@@ -26398,9 +26250,7 @@
         <v>731</v>
       </c>
       <c r="K354" s="2"/>
-      <c r="L354" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L354" s="5"/>
       <c r="M354" s="2" t="s">
         <v>49</v>
       </c>
@@ -26454,9 +26304,7 @@
         <v>712</v>
       </c>
       <c r="K355" s="2"/>
-      <c r="L355" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L355" s="5"/>
       <c r="M355" s="2" t="s">
         <v>49</v>
       </c>
@@ -26483,46 +26331,44 @@
       <c r="V355" s="2"/>
     </row>
     <row r="356" spans="1:22">
-      <c r="A356" s="2" t="s">
+      <c r="A356" s="6" t="s">
         <v>1526</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C356" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D356" s="2"/>
-      <c r="E356" s="2"/>
-      <c r="F356" s="2"/>
-      <c r="G356" s="2"/>
-      <c r="H356" s="2"/>
-      <c r="I356" s="2"/>
-      <c r="J356" s="2" t="s">
+      <c r="C356" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D356" s="6"/>
+      <c r="E356" s="6"/>
+      <c r="F356" s="6"/>
+      <c r="G356" s="6"/>
+      <c r="H356" s="6"/>
+      <c r="I356" s="6"/>
+      <c r="J356" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="K356" s="2" t="s">
+      <c r="K356" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="L356" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M356" s="2" t="s">
+      <c r="L356" s="5"/>
+      <c r="M356" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N356" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O356" s="2"/>
-      <c r="P356" s="2"/>
-      <c r="Q356" s="2"/>
-      <c r="R356" s="2"/>
-      <c r="S356" s="2"/>
-      <c r="T356" s="2"/>
-      <c r="U356" s="2" t="s">
+      <c r="N356" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O356" s="6"/>
+      <c r="P356" s="6"/>
+      <c r="Q356" s="6"/>
+      <c r="R356" s="6"/>
+      <c r="S356" s="6"/>
+      <c r="T356" s="6"/>
+      <c r="U356" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="V356" s="2" t="s">
+      <c r="V356" s="6" t="s">
         <v>836</v>
       </c>
     </row>
@@ -26762,9 +26608,7 @@
         <v>686</v>
       </c>
       <c r="K361" s="2"/>
-      <c r="L361" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L361" s="5"/>
       <c r="M361" s="2" t="s">
         <v>49</v>
       </c>
@@ -26791,46 +26635,44 @@
       <c r="V361" s="2"/>
     </row>
     <row r="362" spans="1:22">
-      <c r="A362" s="2" t="s">
+      <c r="A362" s="6" t="s">
         <v>1532</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B362" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="C362" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D362" s="2"/>
-      <c r="E362" s="2"/>
-      <c r="F362" s="2"/>
-      <c r="G362" s="2"/>
-      <c r="H362" s="2"/>
-      <c r="I362" s="2"/>
-      <c r="J362" s="2" t="s">
+      <c r="D362" s="6"/>
+      <c r="E362" s="6"/>
+      <c r="F362" s="6"/>
+      <c r="G362" s="6"/>
+      <c r="H362" s="6"/>
+      <c r="I362" s="6"/>
+      <c r="J362" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="K362" s="2" t="s">
+      <c r="K362" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="L362" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M362" s="2" t="s">
+      <c r="L362" s="5"/>
+      <c r="M362" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="N362" s="2" t="s">
+      <c r="N362" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="O362" s="2"/>
-      <c r="P362" s="2"/>
-      <c r="Q362" s="2"/>
-      <c r="R362" s="2"/>
-      <c r="S362" s="2"/>
-      <c r="T362" s="2"/>
-      <c r="U362" s="2" t="s">
+      <c r="O362" s="6"/>
+      <c r="P362" s="6"/>
+      <c r="Q362" s="6"/>
+      <c r="R362" s="6"/>
+      <c r="S362" s="6"/>
+      <c r="T362" s="6"/>
+      <c r="U362" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="V362" s="2" t="s">
+      <c r="V362" s="6" t="s">
         <v>837</v>
       </c>
     </row>
@@ -27317,44 +27159,42 @@
       <c r="V371" s="2"/>
     </row>
     <row r="372" spans="1:22">
-      <c r="A372" s="2" t="s">
+      <c r="A372" s="6" t="s">
         <v>1542</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B372" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C372" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D372" s="2"/>
-      <c r="E372" s="2"/>
-      <c r="F372" s="2"/>
-      <c r="G372" s="2"/>
-      <c r="H372" s="2"/>
-      <c r="I372" s="2"/>
-      <c r="J372" s="2" t="s">
+      <c r="C372" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D372" s="6"/>
+      <c r="E372" s="6"/>
+      <c r="F372" s="6"/>
+      <c r="G372" s="6"/>
+      <c r="H372" s="6"/>
+      <c r="I372" s="6"/>
+      <c r="J372" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K372" s="2"/>
-      <c r="L372" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M372" s="2" t="s">
+      <c r="K372" s="6"/>
+      <c r="L372" s="5"/>
+      <c r="M372" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="N372" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O372" s="2"/>
-      <c r="P372" s="2"/>
-      <c r="Q372" s="2"/>
-      <c r="R372" s="2"/>
-      <c r="S372" s="2"/>
-      <c r="T372" s="2"/>
-      <c r="U372" s="2" t="s">
+      <c r="N372" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O372" s="6"/>
+      <c r="P372" s="6"/>
+      <c r="Q372" s="6"/>
+      <c r="R372" s="6"/>
+      <c r="S372" s="6"/>
+      <c r="T372" s="6"/>
+      <c r="U372" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V372" s="2"/>
+      <c r="V372" s="6"/>
     </row>
     <row r="373" spans="1:22">
       <c r="A373" s="2" t="s">
@@ -34573,44 +34413,42 @@
       <c r="V547" s="9"/>
     </row>
     <row r="548" spans="1:22">
-      <c r="A548" s="2" t="s">
+      <c r="A548" s="6" t="s">
         <v>1718</v>
       </c>
-      <c r="B548" s="2" t="s">
+      <c r="B548" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C548" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D548" s="2"/>
-      <c r="E548" s="2"/>
-      <c r="F548" s="2"/>
-      <c r="G548" s="2"/>
-      <c r="H548" s="2"/>
-      <c r="I548" s="2"/>
-      <c r="J548" s="2" t="s">
+      <c r="C548" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D548" s="6"/>
+      <c r="E548" s="6"/>
+      <c r="F548" s="6"/>
+      <c r="G548" s="6"/>
+      <c r="H548" s="6"/>
+      <c r="I548" s="6"/>
+      <c r="J548" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K548" s="2"/>
-      <c r="L548" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M548" s="2" t="s">
+      <c r="K548" s="6"/>
+      <c r="L548" s="5"/>
+      <c r="M548" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N548" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O548" s="2"/>
-      <c r="P548" s="2"/>
-      <c r="Q548" s="2"/>
-      <c r="R548" s="2"/>
-      <c r="S548" s="2"/>
-      <c r="T548" s="2"/>
-      <c r="U548" s="2" t="s">
+      <c r="N548" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O548" s="6"/>
+      <c r="P548" s="6"/>
+      <c r="Q548" s="6"/>
+      <c r="R548" s="6"/>
+      <c r="S548" s="6"/>
+      <c r="T548" s="6"/>
+      <c r="U548" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V548" s="2"/>
+      <c r="V548" s="6"/>
     </row>
     <row r="549" spans="1:22">
       <c r="A549" s="2" t="s">
@@ -34744,9 +34582,7 @@
         <v>668</v>
       </c>
       <c r="K551" s="2"/>
-      <c r="L551" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L551" s="5"/>
       <c r="M551" s="2" t="s">
         <v>54</v>
       </c>
@@ -35697,44 +35533,42 @@
       </c>
     </row>
     <row r="575" spans="1:22">
-      <c r="A575" s="2" t="s">
+      <c r="A575" s="6" t="s">
         <v>1745</v>
       </c>
-      <c r="B575" s="2" t="s">
+      <c r="B575" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C575" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D575" s="2"/>
-      <c r="E575" s="2"/>
-      <c r="F575" s="2"/>
-      <c r="G575" s="2"/>
-      <c r="H575" s="2"/>
-      <c r="I575" s="2"/>
-      <c r="J575" s="2" t="s">
+      <c r="C575" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D575" s="6"/>
+      <c r="E575" s="6"/>
+      <c r="F575" s="6"/>
+      <c r="G575" s="6"/>
+      <c r="H575" s="6"/>
+      <c r="I575" s="6"/>
+      <c r="J575" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K575" s="2"/>
-      <c r="L575" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M575" s="2" t="s">
+      <c r="K575" s="6"/>
+      <c r="L575" s="5"/>
+      <c r="M575" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N575" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O575" s="2"/>
-      <c r="P575" s="2"/>
-      <c r="Q575" s="2"/>
-      <c r="R575" s="2"/>
-      <c r="S575" s="2"/>
-      <c r="T575" s="2"/>
-      <c r="U575" s="2" t="s">
+      <c r="N575" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O575" s="6"/>
+      <c r="P575" s="6"/>
+      <c r="Q575" s="6"/>
+      <c r="R575" s="6"/>
+      <c r="S575" s="6"/>
+      <c r="T575" s="6"/>
+      <c r="U575" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="V575" s="2"/>
+      <c r="V575" s="6"/>
     </row>
     <row r="576" spans="1:22">
       <c r="A576" s="2" t="s">
